--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95004.43709655758</v>
+        <v>17449103.35287238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95004.43709655758</v>
+        <v>17449103.35287238</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55532.46911087685</v>
+        <v>7091814.553875425</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55532.46911087685</v>
+        <v>7091814.553875425</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494580099.670035</v>
+        <v>54126155.55873643</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12124.36058210375</v>
+        <v>1244861.396666538</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23293.20909171587</v>
+        <v>2343190.858364517</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34462.05760132796</v>
+        <v>3441520.320062497</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46305.3064326318</v>
+        <v>4419764.6264963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57570.44013032481</v>
+        <v>5532221.550093614</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68744.25696131952</v>
+        <v>6639720.156931602</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79864.79828955833</v>
+        <v>7776612.21898645</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90975.5549551132</v>
+        <v>8909876.777978169</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102870.9393181617</v>
+        <v>9874842.454433868</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114102.3332159024</v>
+        <v>10998921.05133394</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125203.9810363678</v>
+        <v>12112274.37527433</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136299.332908057</v>
+        <v>13224960.32864444</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147394.6847797461</v>
+        <v>14337646.28201456</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159863.7418588185</v>
+        <v>15215524.21180682</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174769.1368692615</v>
+        <v>15726966.10203631</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>335</v>
@@ -27055,10 +27055,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>259</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,10 +27150,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
